--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C7415-181E-47FE-9E02-0D7DEA35F302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FDF2F5-B64E-4CDE-B5B9-80EAEE65356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="185">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -200,7 +200,10 @@
     <t>testT4273</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>NonInvestigativeCaseDataSetup1</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>PROFILE_ICON</t>
@@ -665,7 +668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +741,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -779,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -830,6 +839,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,9 +1157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1752,7 +1763,7 @@
     </row>
     <row r="23" spans="1:14" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -1954,21 +1965,48 @@
       <c r="N31" s="42"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42" t="s">
+      <c r="A32" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="N32" s="42"/>
+      <c r="B32" s="50">
+        <v>1</v>
+      </c>
+      <c r="C32" s="50">
+        <v>1</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="50" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1978,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2003,33 +2041,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2043,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2063,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2083,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2103,13 +2141,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2123,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2143,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2163,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2183,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2203,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2223,13 +2261,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2243,13 +2281,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2263,33 +2301,33 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="B15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2303,13 +2341,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -2323,13 +2361,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -2343,13 +2381,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -2363,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -2383,13 +2421,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
@@ -2403,13 +2441,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -2423,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2443,13 +2481,33 @@
         <v>1</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="51">
+        <v>1</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2459,17 +2517,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:BZ30"/>
+  <dimension ref="A1:BZ31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.81640625" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -2544,229 +2603,229 @@
         <v>2</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AG1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE1" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH1" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI1" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD1" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE1" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF1" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH1" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI1" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK1" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL1" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM1" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN1" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO1" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="BP1" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="AU1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD1" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE1" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="BF1" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="BG1" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="BH1" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="BI1" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="BJ1" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK1" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="BL1" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="BM1" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="BN1" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO1" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP1" s="42" t="s">
-        <v>101</v>
-      </c>
       <c r="BQ1" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BR1" s="42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BS1" s="42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BT1" s="42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BU1" s="42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BV1" s="42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BW1" s="42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BX1" s="42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BY1" s="42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BZ1" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2798,38 +2857,38 @@
       <c r="T2" s="42"/>
       <c r="U2" s="42"/>
       <c r="AE2" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF2" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG2" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AH2" s="42"/>
       <c r="AI2" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL2" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO2" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP2" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
@@ -2840,43 +2899,43 @@
       <c r="AW2" s="10"/>
       <c r="AX2" s="10"/>
       <c r="AY2" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BA2" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BB2" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BC2" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BD2" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BE2" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF2" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BG2" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BH2" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BI2" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BJ2" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BK2" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BL2" s="34"/>
       <c r="BM2" s="34"/>
@@ -2905,19 +2964,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
@@ -3001,19 +3060,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
@@ -3097,19 +3156,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
@@ -3123,13 +3182,13 @@
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
       <c r="T5" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V5" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
@@ -3169,10 +3228,10 @@
       <c r="BF5" s="37"/>
       <c r="BG5" s="37"/>
       <c r="BH5" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI5" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BJ5" s="37"/>
       <c r="BK5" s="37"/>
@@ -3203,19 +3262,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
@@ -3269,10 +3328,10 @@
       <c r="BF6" s="37"/>
       <c r="BG6" s="37"/>
       <c r="BH6" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI6" s="37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BJ6" s="37"/>
       <c r="BK6" s="37"/>
@@ -3303,19 +3362,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
@@ -3329,13 +3388,13 @@
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
       <c r="T7" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U7" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V7" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
@@ -3375,10 +3434,10 @@
       <c r="BF7" s="37"/>
       <c r="BG7" s="37"/>
       <c r="BH7" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI7" s="37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BJ7" s="37"/>
       <c r="BK7" s="37"/>
@@ -3409,19 +3468,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
@@ -3487,19 +3546,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -3583,38 +3642,38 @@
       <c r="T10" s="42"/>
       <c r="U10" s="42"/>
       <c r="AE10" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF10" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG10" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AH10" s="42"/>
       <c r="AI10" s="42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
@@ -3625,31 +3684,31 @@
       <c r="AW10" s="10"/>
       <c r="AX10" s="10"/>
       <c r="AY10" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AZ10" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BA10" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BB10" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BC10" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BD10" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BE10" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF10" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BG10" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BH10" s="42"/>
       <c r="BI10" s="42"/>
@@ -3681,19 +3740,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -3707,13 +3766,13 @@
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U11" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V11" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
@@ -3783,19 +3842,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -3809,13 +3868,13 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U12" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V12" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
@@ -3885,61 +3944,61 @@
         <v>1</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V13" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -4009,19 +4068,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -4035,13 +4094,13 @@
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
@@ -4111,19 +4170,19 @@
         <v>1</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
@@ -4137,13 +4196,13 @@
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
       <c r="T15" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -4213,19 +4272,19 @@
         <v>1</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="41"/>
@@ -4234,18 +4293,18 @@
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U16" s="42"/>
       <c r="V16" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE16" s="42"/>
       <c r="AF16" s="20"/>
@@ -4298,19 +4357,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -4324,18 +4383,18 @@
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U17" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE17" s="42"/>
       <c r="AF17" s="42"/>
       <c r="AG17" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH17" s="42"/>
       <c r="AI17" s="42"/>
@@ -4360,32 +4419,32 @@
       <c r="BJ17" s="42"/>
       <c r="BK17" s="42"/>
       <c r="BL17" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BN17" s="42"/>
       <c r="BO17" s="42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BP17" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BQ17" s="42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR17" s="42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BS17" s="42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BT17" s="42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BU17" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BV17" s="42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BW17" s="42"/>
       <c r="BX17" s="42"/>
@@ -4403,10 +4462,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
@@ -4436,7 +4495,7 @@
       <c r="AE18" s="42"/>
       <c r="AF18" s="42"/>
       <c r="AG18" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH18" s="42"/>
       <c r="AI18" s="42"/>
@@ -4470,35 +4529,35 @@
       <c r="BK18" s="42"/>
       <c r="BL18" s="42"/>
       <c r="BM18" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BN18" s="42"/>
       <c r="BO18" s="42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BP18" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BQ18" s="42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR18" s="42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BS18" s="42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BT18" s="42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BU18" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BV18" s="42"/>
       <c r="BW18" s="42"/>
       <c r="BX18" s="42"/>
       <c r="BY18" s="42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BZ18" s="42"/>
     </row>
@@ -4542,7 +4601,7 @@
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
       <c r="AG19" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH19" s="42"/>
       <c r="AI19" s="42"/>
@@ -4577,48 +4636,48 @@
       <c r="BL19" s="42"/>
       <c r="BM19" s="42"/>
       <c r="BN19" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO19" s="42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BP19" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BQ19" s="42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR19" s="42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BS19" s="42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BT19" s="42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BU19" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BV19" s="42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BW19" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="BX19" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY19" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="BX19" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="BY19" s="42" t="s">
-        <v>162</v>
-      </c>
       <c r="BZ19" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" s="41">
         <v>1</v>
@@ -4627,13 +4686,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -4698,23 +4757,23 @@
         <v>1</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
@@ -4726,13 +4785,13 @@
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
       <c r="T21" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
@@ -4793,7 +4852,7 @@
     </row>
     <row r="22" spans="1:78" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" s="38">
         <v>1</v>
@@ -4802,31 +4861,31 @@
         <v>1</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
@@ -4851,19 +4910,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
@@ -4877,13 +4936,13 @@
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
       <c r="T23" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U23" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V23" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
@@ -4953,19 +5012,19 @@
         <v>1</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
@@ -4979,13 +5038,13 @@
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U24" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V24" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
@@ -5055,58 +5114,58 @@
         <v>1</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S25" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T25" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W25" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:78" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5120,28 +5179,28 @@
         <v>1</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T26" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U26" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V26" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO26" s="14"/>
     </row>
@@ -5156,28 +5215,28 @@
         <v>1</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T27" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U27" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V27" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO27" s="32"/>
     </row>
@@ -5192,19 +5251,19 @@
         <v>1</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J28" s="41"/>
       <c r="AF28" s="20"/>
@@ -5220,85 +5279,85 @@
         <v>1</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X29" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z29" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB29" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE29" s="42"/>
       <c r="AF29" s="42"/>
@@ -5306,49 +5365,49 @@
       <c r="AH29" s="42"/>
       <c r="AI29" s="42"/>
       <c r="AJ29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AP29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AR29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AS29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AT29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AV29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AW29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AX29" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AY29" s="42"/>
       <c r="AZ29" s="42"/>
@@ -5389,18 +5448,18 @@
         <v>1</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K30" s="42"/>
       <c r="L30" s="42"/>
@@ -5453,6 +5512,242 @@
       <c r="BY30" s="42"/>
       <c r="BZ30" s="42"/>
     </row>
+    <row r="31" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="50">
+        <v>1</v>
+      </c>
+      <c r="C31" s="50">
+        <v>1</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="L31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="O31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="P31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="R31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="S31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="T31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="U31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="V31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="X31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BP31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BY31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ31" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5495,46 +5790,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5549,36 +5844,36 @@
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="42"/>
     </row>
@@ -5593,43 +5888,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="37"/>
     </row>
@@ -5644,43 +5939,43 @@
         <v>1</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="42"/>
     </row>
@@ -5695,43 +5990,43 @@
         <v>1</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" s="41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O5" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="42"/>
     </row>
@@ -5746,46 +6041,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5799,46 +6094,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5852,46 +6147,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5905,46 +6200,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5958,46 +6253,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6011,46 +6306,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6064,46 +6359,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6117,46 +6412,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6170,46 +6465,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6219,6 +6514,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6435,16 +6740,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6455,6 +6750,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6473,16 +6778,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FDF2F5-B64E-4CDE-B5B9-80EAEE65356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CD9685-7250-44C0-99A0-A5A7199423E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="186">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>testT4145_1</t>
+  </si>
+  <si>
+    <t>testT4275</t>
   </si>
 </sst>
 </file>
@@ -788,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -841,6 +844,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2008,6 +2018,33 @@
         <v>54</v>
       </c>
     </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="57">
+        <v>1</v>
+      </c>
+      <c r="C33" s="57">
+        <v>1</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="58"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2016,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2510,6 +2547,26 @@
         <v>61</v>
       </c>
     </row>
+    <row r="25" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="55">
+        <v>1</v>
+      </c>
+      <c r="C25" s="55">
+        <v>1</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2517,11 +2574,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:BZ31"/>
+  <dimension ref="A1:BZ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:BZ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2579,7 +2636,7 @@
     <col min="66" max="66" width="24.1796875" style="33" customWidth="1"/>
     <col min="67" max="67" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="14.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
@@ -5470,7 +5527,9 @@
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
       <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
+      <c r="T30" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="U30" s="42"/>
       <c r="AE30" s="42"/>
       <c r="AF30" s="42"/>
@@ -5748,6 +5807,110 @@
         <v>54</v>
       </c>
     </row>
+    <row r="32" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="54">
+        <v>1</v>
+      </c>
+      <c r="C32" s="54">
+        <v>1</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="V32" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="52"/>
+      <c r="BA32" s="52"/>
+      <c r="BB32" s="52"/>
+      <c r="BC32" s="52"/>
+      <c r="BD32" s="52"/>
+      <c r="BE32" s="52"/>
+      <c r="BF32" s="52"/>
+      <c r="BG32" s="52"/>
+      <c r="BH32" s="52"/>
+      <c r="BI32" s="52"/>
+      <c r="BJ32" s="52"/>
+      <c r="BK32" s="52"/>
+      <c r="BL32" s="52"/>
+      <c r="BM32" s="52"/>
+      <c r="BN32" s="52"/>
+      <c r="BO32" s="52"/>
+      <c r="BP32" s="52"/>
+      <c r="BQ32" s="52"/>
+      <c r="BR32" s="52"/>
+      <c r="BS32" s="52"/>
+      <c r="BT32" s="52"/>
+      <c r="BU32" s="52"/>
+      <c r="BV32" s="52"/>
+      <c r="BW32" s="52"/>
+      <c r="BX32" s="52"/>
+      <c r="BY32" s="52"/>
+      <c r="BZ32" s="52"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6524,6 +6687,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6740,15 +6912,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
@@ -6760,6 +6923,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6776,12 +6947,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F84651-8C05-4B89-BCBF-F3D63D3EF846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F05141-B05E-4D3F-A1B8-F1083180F10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -1174,9 +1174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2629,13 +2629,13 @@
       <c r="C25" s="53">
         <v>1</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="50" t="s">
+      <c r="D25" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="51" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7120,16 +7120,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7346,6 +7336,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7356,16 +7356,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7384,6 +7374,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F05141-B05E-4D3F-A1B8-F1083180F10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC88CA6-7AA7-43A1-8C0F-5A5D2C345A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="194">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -215,6 +215,15 @@
     <t>testT4763</t>
   </si>
   <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>testT4215</t>
+  </si>
+  <si>
+    <t>testT4256</t>
+  </si>
+  <si>
     <t>PROFILE_ICON</t>
   </si>
   <si>
@@ -561,6 +570,9 @@
   </si>
   <si>
     <t>INV_CASE_ID1</t>
+  </si>
+  <si>
+    <t>FOL-000001342407</t>
   </si>
   <si>
     <t>APPROVAL_AUDIT_HISTORY_TAB</t>
@@ -1172,11 +1184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2057,7 +2069,7 @@
       <c r="C33" s="52">
         <v>1</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="47" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="52"/>
@@ -2117,6 +2129,96 @@
       </c>
       <c r="N34" s="48"/>
     </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="49">
+        <v>1</v>
+      </c>
+      <c r="C35" s="49">
+        <v>1</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="49">
+        <v>1</v>
+      </c>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="47">
+        <v>1</v>
+      </c>
+      <c r="C37" s="47">
+        <v>1</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="48"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2125,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2150,33 +2252,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2190,13 +2292,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2210,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2230,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2250,13 +2352,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2270,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2290,13 +2392,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2310,13 +2412,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2330,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2350,13 +2452,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2370,13 +2472,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2390,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2410,13 +2512,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -2430,13 +2532,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2450,13 +2552,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2470,13 +2572,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -2490,13 +2592,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -2510,13 +2612,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -2530,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -2550,13 +2652,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -2570,13 +2672,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2590,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2610,13 +2712,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
@@ -2629,14 +2731,74 @@
       <c r="C25" s="53">
         <v>1</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>64</v>
+      <c r="D25" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="49">
+        <v>1</v>
+      </c>
+      <c r="C26" s="49">
+        <v>1</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="49">
+        <v>1</v>
+      </c>
+      <c r="C27" s="49">
+        <v>1</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="49">
+        <v>1</v>
+      </c>
+      <c r="C28" s="49">
+        <v>1</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2646,11 +2808,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:CB32"/>
+  <dimension ref="A1:CB36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V11" sqref="V11"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2675,7 +2837,8 @@
     <col min="19" max="19" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.1796875" style="2" customWidth="1"/>
     <col min="21" max="21" width="14.81640625" style="2" customWidth="1"/>
-    <col min="22" max="23" width="14.81640625" style="39" customWidth="1"/>
+    <col min="22" max="22" width="16.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.81640625" style="39" customWidth="1"/>
     <col min="24" max="24" width="24.54296875" style="39" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18" style="49" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18" style="49" customWidth="1"/>
@@ -2734,235 +2897,235 @@
         <v>2</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L1" s="49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M1" s="49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N1" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AI1" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AG1" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH1" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI1" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ1" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="AX1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI1" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ1" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL1" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO1" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP1" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ1" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="BR1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="AZ1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="BF1" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG1" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="BH1" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI1" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="BJ1" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="BK1" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="BL1" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="BM1" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN1" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="BO1" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="BP1" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ1" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="BR1" s="49" t="s">
-        <v>107</v>
-      </c>
       <c r="BS1" s="49" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="BT1" s="49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BU1" s="49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="BV1" s="49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="BW1" s="49" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BX1" s="49" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BY1" s="49" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="BZ1" s="49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="CA1" s="49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="CB1" s="49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3003,38 +3166,38 @@
       <c r="AE2" s="49"/>
       <c r="AF2" s="49"/>
       <c r="AG2" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AH2" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AI2" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AJ2" s="49"/>
       <c r="AK2" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AN2" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AS2" s="8"/>
       <c r="AT2" s="8"/>
@@ -3045,43 +3208,43 @@
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BD2" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BE2" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BF2" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BG2" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BH2" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BI2" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BJ2" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BK2" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BL2" s="31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="BM2" s="31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="BN2" s="31"/>
       <c r="BO2" s="31"/>
@@ -3110,19 +3273,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -3208,19 +3371,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -3306,19 +3469,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -3332,13 +3495,13 @@
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V5" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W5" s="34"/>
       <c r="X5" s="34"/>
@@ -3380,10 +3543,10 @@
       <c r="BH5" s="34"/>
       <c r="BI5" s="34"/>
       <c r="BJ5" s="34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BK5" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="BL5" s="34"/>
       <c r="BM5" s="34"/>
@@ -3414,19 +3577,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
@@ -3482,10 +3645,10 @@
       <c r="BH6" s="34"/>
       <c r="BI6" s="34"/>
       <c r="BJ6" s="34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BK6" s="34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BL6" s="34"/>
       <c r="BM6" s="34"/>
@@ -3516,19 +3679,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
@@ -3542,13 +3705,13 @@
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V7" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W7" s="34"/>
       <c r="X7" s="34"/>
@@ -3590,10 +3753,10 @@
       <c r="BH7" s="34"/>
       <c r="BI7" s="34"/>
       <c r="BJ7" s="34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BK7" s="34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BL7" s="34"/>
       <c r="BM7" s="34"/>
@@ -3624,19 +3787,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
@@ -3720,19 +3883,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
@@ -3843,38 +4006,38 @@
       <c r="AE10" s="49"/>
       <c r="AF10" s="49"/>
       <c r="AG10" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AH10" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AI10" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AJ10" s="49"/>
       <c r="AK10" s="49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AL10" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AM10" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AN10" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AO10" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AP10" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AQ10" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AR10" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AS10" s="8"/>
       <c r="AT10" s="8"/>
@@ -3885,31 +4048,31 @@
       <c r="AY10" s="8"/>
       <c r="AZ10" s="8"/>
       <c r="BA10" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BB10" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BD10" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BE10" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BF10" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BG10" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BH10" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BI10" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BJ10" s="49"/>
       <c r="BK10" s="49"/>
@@ -3942,19 +4105,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
@@ -3968,13 +4131,13 @@
       <c r="R11" s="52"/>
       <c r="S11" s="52"/>
       <c r="T11" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U11" s="52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V11" s="52" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="W11" s="52"/>
       <c r="X11" s="52"/>
@@ -4046,19 +4209,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
@@ -4072,13 +4235,13 @@
       <c r="R12" s="52"/>
       <c r="S12" s="52"/>
       <c r="T12" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U12" s="52" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V12" s="52" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="W12" s="52"/>
       <c r="X12" s="52"/>
@@ -4150,61 +4313,61 @@
         <v>1</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T13" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U13" s="33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V13" s="33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
@@ -4276,19 +4439,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
@@ -4302,13 +4465,13 @@
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V14" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W14" s="32"/>
       <c r="X14" s="32"/>
@@ -4380,19 +4543,19 @@
         <v>1</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -4406,13 +4569,13 @@
       <c r="R15" s="32"/>
       <c r="S15" s="32"/>
       <c r="T15" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V15" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W15" s="32"/>
       <c r="X15" s="32"/>
@@ -4484,19 +4647,19 @@
         <v>1</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I16" s="49"/>
       <c r="J16" s="38"/>
@@ -4505,18 +4668,18 @@
       <c r="M16" s="49"/>
       <c r="N16" s="49"/>
       <c r="O16" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
       <c r="T16" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U16" s="49"/>
       <c r="V16" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="W16" s="49"/>
       <c r="X16" s="49"/>
@@ -4586,19 +4749,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
@@ -4612,13 +4775,13 @@
       <c r="R17" s="49"/>
       <c r="S17" s="49"/>
       <c r="T17" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U17" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="W17" s="49"/>
       <c r="X17" s="49"/>
@@ -4631,7 +4794,7 @@
       <c r="AG17" s="49"/>
       <c r="AH17" s="49"/>
       <c r="AI17" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AJ17" s="49"/>
       <c r="AK17" s="49"/>
@@ -4664,33 +4827,33 @@
       <c r="BL17" s="49"/>
       <c r="BM17" s="49"/>
       <c r="BN17" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BO17" s="49"/>
       <c r="BP17" s="49"/>
       <c r="BQ17" s="49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="BR17" s="49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BS17" s="49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BT17" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BU17" s="49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BV17" s="49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BW17" s="49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BX17" s="49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BY17" s="49"/>
       <c r="BZ17" s="49"/>
@@ -4708,10 +4871,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -4743,7 +4906,7 @@
       <c r="AG18" s="49"/>
       <c r="AH18" s="49"/>
       <c r="AI18" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AJ18" s="49"/>
       <c r="AK18" s="49"/>
@@ -4777,35 +4940,35 @@
       <c r="BM18" s="49"/>
       <c r="BN18" s="49"/>
       <c r="BO18" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BP18" s="49"/>
       <c r="BQ18" s="49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="BR18" s="49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BS18" s="49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BT18" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BU18" s="49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BV18" s="49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BW18" s="49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BX18" s="49"/>
       <c r="BY18" s="49"/>
       <c r="BZ18" s="49"/>
       <c r="CA18" s="49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="CB18" s="49"/>
     </row>
@@ -4851,7 +5014,7 @@
       <c r="AG19" s="49"/>
       <c r="AH19" s="49"/>
       <c r="AI19" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
@@ -4886,48 +5049,48 @@
       <c r="BN19" s="49"/>
       <c r="BO19" s="49"/>
       <c r="BP19" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BQ19" s="49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="BR19" s="49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BS19" s="49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BT19" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BU19" s="49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BV19" s="49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BW19" s="49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BX19" s="49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BY19" s="49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BZ19" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="CA19" s="49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="CB19" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B20" s="38">
         <v>1</v>
@@ -4936,14 +5099,14 @@
         <v>1</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
       <c r="I20" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
@@ -5026,23 +5189,23 @@
         <v>1</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I21" s="52"/>
       <c r="J21" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K21" s="52"/>
       <c r="L21" s="52"/>
@@ -5054,13 +5217,13 @@
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
       <c r="T21" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U21" s="53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="V21" s="53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
@@ -5132,23 +5295,23 @@
         <v>1</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I22" s="52"/>
       <c r="J22" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K22" s="52"/>
       <c r="L22" s="52"/>
@@ -5160,13 +5323,13 @@
       <c r="R22" s="52"/>
       <c r="S22" s="52"/>
       <c r="T22" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U22" s="53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="V22" s="53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="W22" s="53"/>
       <c r="X22" s="53"/>
@@ -5238,19 +5401,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -5264,13 +5427,13 @@
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V23" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W23" s="32"/>
       <c r="X23" s="32"/>
@@ -5342,19 +5505,19 @@
         <v>1</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I24" s="52"/>
       <c r="J24" s="52"/>
@@ -5368,13 +5531,13 @@
       <c r="R24" s="52"/>
       <c r="S24" s="52"/>
       <c r="T24" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U24" s="52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V24" s="52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="W24" s="52"/>
       <c r="X24" s="52"/>
@@ -5446,58 +5609,58 @@
         <v>1</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="S25" s="41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T25" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="W25" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:80" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5511,28 +5674,28 @@
         <v>1</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T26" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AQ26" s="12"/>
     </row>
@@ -5547,19 +5710,19 @@
         <v>1</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H27" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
@@ -5573,13 +5736,13 @@
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
       <c r="T27" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U27" s="52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="W27" s="52"/>
       <c r="X27" s="52"/>
@@ -5651,19 +5814,19 @@
         <v>1</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I28" s="49"/>
       <c r="J28" s="38"/>
@@ -5749,91 +5912,91 @@
         <v>1</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="S29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U29" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="W29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="X29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Z29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AA29" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AB29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AC29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AD29" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AE29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AF29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AG29" s="49"/>
       <c r="AH29" s="49"/>
@@ -5841,49 +6004,49 @@
       <c r="AJ29" s="49"/>
       <c r="AK29" s="49"/>
       <c r="AL29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AM29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AN29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AO29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AP29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AQ29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AR29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AS29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AT29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AU29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AV29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AW29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AX29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AY29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AZ29" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BA29" s="49"/>
       <c r="BB29" s="49"/>
@@ -5925,19 +6088,19 @@
         <v>1</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
       <c r="I30" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J30" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K30" s="49"/>
       <c r="L30" s="49"/>
@@ -5949,7 +6112,7 @@
       <c r="R30" s="49"/>
       <c r="S30" s="49"/>
       <c r="T30" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U30" s="49"/>
       <c r="V30" s="49"/>
@@ -6021,55 +6184,55 @@
         <v>1</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I31" s="47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="S31" s="47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T31" s="47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U31" s="47" t="s">
         <v>55</v>
@@ -6078,7 +6241,7 @@
         <v>55</v>
       </c>
       <c r="W31" s="47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="X31" s="47" t="s">
         <v>55</v>
@@ -6259,23 +6422,23 @@
         <v>1</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
@@ -6287,13 +6450,13 @@
       <c r="R32" s="52"/>
       <c r="S32" s="52"/>
       <c r="T32" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U32" s="53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="V32" s="53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="W32" s="53"/>
       <c r="X32" s="53"/>
@@ -6354,6 +6517,468 @@
       <c r="CA32" s="49"/>
       <c r="CB32" s="49"/>
     </row>
+    <row r="33" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="49">
+        <v>1</v>
+      </c>
+      <c r="C33" s="49">
+        <v>1</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
+      <c r="BP33" s="49"/>
+      <c r="BQ33" s="49"/>
+      <c r="BR33" s="49"/>
+      <c r="BS33" s="49"/>
+      <c r="BT33" s="49"/>
+      <c r="BU33" s="49"/>
+      <c r="BV33" s="49"/>
+      <c r="BW33" s="49"/>
+      <c r="BX33" s="49"/>
+      <c r="BY33" s="49"/>
+      <c r="BZ33" s="49"/>
+      <c r="CA33" s="49"/>
+      <c r="CB33" s="49"/>
+    </row>
+    <row r="34" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="49">
+        <v>1</v>
+      </c>
+      <c r="C34" s="49">
+        <v>1</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="L34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="M34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="N34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="O34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="P34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="R34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="S34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="T34" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="U34" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="V34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="W34" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="X34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
+      <c r="BB34" s="49"/>
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="49"/>
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="49"/>
+      <c r="BG34" s="49"/>
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="49"/>
+      <c r="BL34" s="49"/>
+      <c r="BM34" s="49"/>
+      <c r="BN34" s="49"/>
+      <c r="BO34" s="49"/>
+      <c r="BP34" s="49"/>
+      <c r="BQ34" s="49"/>
+      <c r="BR34" s="49"/>
+      <c r="BS34" s="49"/>
+      <c r="BT34" s="49"/>
+      <c r="BU34" s="49"/>
+      <c r="BV34" s="49"/>
+      <c r="BW34" s="49"/>
+      <c r="BX34" s="49"/>
+      <c r="BY34" s="49"/>
+      <c r="BZ34" s="49"/>
+      <c r="CA34" s="49"/>
+      <c r="CB34" s="49"/>
+    </row>
+    <row r="35" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="41">
+        <v>1</v>
+      </c>
+      <c r="C35" s="41">
+        <v>1</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="N35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="R35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="S35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="T35" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41"/>
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="41"/>
+      <c r="BA35" s="41"/>
+      <c r="BB35" s="41"/>
+      <c r="BC35" s="41"/>
+      <c r="BD35" s="41"/>
+      <c r="BE35" s="41"/>
+      <c r="BF35" s="41"/>
+      <c r="BG35" s="41"/>
+      <c r="BH35" s="41"/>
+      <c r="BI35" s="41"/>
+      <c r="BJ35" s="41"/>
+      <c r="BK35" s="41"/>
+      <c r="BL35" s="41"/>
+      <c r="BM35" s="41"/>
+      <c r="BN35" s="41"/>
+      <c r="BO35" s="41"/>
+      <c r="BP35" s="41"/>
+      <c r="BQ35" s="41"/>
+      <c r="BR35" s="41"/>
+      <c r="BS35" s="41"/>
+      <c r="BT35" s="41"/>
+      <c r="BU35" s="41"/>
+      <c r="BV35" s="41"/>
+      <c r="BW35" s="41"/>
+      <c r="BX35" s="41"/>
+      <c r="BY35" s="41"/>
+      <c r="BZ35" s="41"/>
+      <c r="CA35" s="41"/>
+      <c r="CB35" s="41"/>
+    </row>
+    <row r="36" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="41">
+        <v>1</v>
+      </c>
+      <c r="C36" s="41">
+        <v>1</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="M36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="N36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="P36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="R36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="S36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="T36" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="41"/>
+      <c r="AS36" s="41"/>
+      <c r="AT36" s="41"/>
+      <c r="AU36" s="41"/>
+      <c r="AV36" s="41"/>
+      <c r="AW36" s="41"/>
+      <c r="AX36" s="41"/>
+      <c r="AY36" s="41"/>
+      <c r="AZ36" s="41"/>
+      <c r="BA36" s="41"/>
+      <c r="BB36" s="41"/>
+      <c r="BC36" s="41"/>
+      <c r="BD36" s="41"/>
+      <c r="BE36" s="41"/>
+      <c r="BF36" s="41"/>
+      <c r="BG36" s="41"/>
+      <c r="BH36" s="41"/>
+      <c r="BI36" s="41"/>
+      <c r="BJ36" s="41"/>
+      <c r="BK36" s="41"/>
+      <c r="BL36" s="41"/>
+      <c r="BM36" s="41"/>
+      <c r="BN36" s="41"/>
+      <c r="BO36" s="41"/>
+      <c r="BP36" s="41"/>
+      <c r="BQ36" s="41"/>
+      <c r="BR36" s="41"/>
+      <c r="BS36" s="41"/>
+      <c r="BT36" s="41"/>
+      <c r="BU36" s="41"/>
+      <c r="BV36" s="41"/>
+      <c r="BW36" s="41"/>
+      <c r="BX36" s="41"/>
+      <c r="BY36" s="41"/>
+      <c r="BZ36" s="41"/>
+      <c r="CA36" s="41"/>
+      <c r="CB36" s="41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6396,46 +7021,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L1" s="49" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M1" s="49" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6450,36 +7075,36 @@
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="O2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="P2" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="Q2" s="49"/>
     </row>
@@ -6494,43 +7119,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="Q3" s="34"/>
     </row>
@@ -6545,43 +7170,43 @@
         <v>1</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="N4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="O4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="P4" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="Q4" s="49"/>
     </row>
@@ -6596,43 +7221,43 @@
         <v>1</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H5" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="N5" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="O5" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="P5" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="Q5" s="49"/>
     </row>
@@ -6647,46 +7272,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="P6" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>61</v>
-      </c>
       <c r="Q6" s="20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6700,46 +7325,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="N7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="O7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="P7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>61</v>
-      </c>
       <c r="Q7" s="20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6753,46 +7378,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="N8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="O8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="P8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="Q8" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6806,46 +7431,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6859,46 +7484,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="Q10" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6912,46 +7537,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="Q11" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6965,46 +7590,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H12" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="N12" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="O12" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="P12" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="53" t="s">
-        <v>61</v>
-      </c>
       <c r="Q12" s="53" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7018,46 +7643,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="Q13" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7071,46 +7696,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H14" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="N14" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="O14" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="P14" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>61</v>
-      </c>
       <c r="Q14" s="53" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7120,6 +7745,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7336,7 +7970,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -7346,16 +7980,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7374,7 +8007,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7382,12 +8015,4 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC88CA6-7AA7-43A1-8C0F-5A5D2C345A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9291C5D-73A6-434F-B510-3E71A322B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="194">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -572,9 +572,6 @@
     <t>INV_CASE_ID1</t>
   </si>
   <si>
-    <t>FOL-000001342407</t>
-  </si>
-  <si>
     <t>APPROVAL_AUDIT_HISTORY_TAB</t>
   </si>
   <si>
@@ -621,6 +618,9 @@
   </si>
   <si>
     <t>Fresno</t>
+  </si>
+  <si>
+    <t>NON_INV_CASE_ID1</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,6 +774,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -815,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -870,6 +876,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2229,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2810,9 +2817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6442,7 +6449,9 @@
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
+      <c r="M32" s="52" t="s">
+        <v>66</v>
+      </c>
       <c r="N32" s="52"/>
       <c r="O32" s="52"/>
       <c r="P32" s="52"/>
@@ -6517,93 +6526,19 @@
       <c r="CA32" s="49"/>
       <c r="CB32" s="49"/>
     </row>
-    <row r="33" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49" t="s">
+    <row r="33" spans="1:80" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="49">
-        <v>1</v>
-      </c>
-      <c r="C33" s="49">
-        <v>1</v>
-      </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
-      <c r="BP33" s="49"/>
-      <c r="BQ33" s="49"/>
-      <c r="BR33" s="49"/>
-      <c r="BS33" s="49"/>
-      <c r="BT33" s="49"/>
-      <c r="BU33" s="49"/>
-      <c r="BV33" s="49"/>
-      <c r="BW33" s="49"/>
-      <c r="BX33" s="49"/>
-      <c r="BY33" s="49"/>
-      <c r="BZ33" s="49"/>
-      <c r="CA33" s="49"/>
-      <c r="CB33" s="49"/>
+      <c r="B33" s="54">
+        <v>1</v>
+      </c>
+      <c r="C33" s="54">
+        <v>1</v>
+      </c>
+      <c r="V33" s="54" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="34" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="49" t="s">
@@ -7021,46 +6956,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>187</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>188</v>
       </c>
       <c r="O1" s="49" t="s">
         <v>106</v>
       </c>
       <c r="P1" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7176,7 +7111,7 @@
         <v>66</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>161</v>
@@ -7227,7 +7162,7 @@
         <v>66</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>161</v>
@@ -7278,7 +7213,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>161</v>
@@ -7311,7 +7246,7 @@
         <v>64</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7331,7 +7266,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>161</v>
@@ -7364,7 +7299,7 @@
         <v>64</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7384,7 +7319,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>161</v>
@@ -7437,7 +7372,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>161</v>
@@ -7470,7 +7405,7 @@
         <v>64</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7490,7 +7425,7 @@
         <v>66</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>161</v>
@@ -7523,7 +7458,7 @@
         <v>64</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7543,7 +7478,7 @@
         <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>161</v>
@@ -7576,7 +7511,7 @@
         <v>64</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7596,7 +7531,7 @@
         <v>66</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="52" t="s">
         <v>161</v>
@@ -7629,7 +7564,7 @@
         <v>64</v>
       </c>
       <c r="Q12" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7649,7 +7584,7 @@
         <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>161</v>
@@ -7682,7 +7617,7 @@
         <v>64</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7702,7 +7637,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>161</v>
@@ -7735,7 +7670,7 @@
         <v>64</v>
       </c>
       <c r="Q14" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0753FCA-B1F0-4FC3-86D6-2645A749FDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAB7FCE-A628-424E-93D0-F48E5F168F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="204">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -648,6 +648,9 @@
   </si>
   <si>
     <t>testT4275_1</t>
+  </si>
+  <si>
+    <t>CDSS</t>
   </si>
 </sst>
 </file>
@@ -1118,9 +1121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1129,7 +1132,7 @@
     <col min="2" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="3" bestFit="1" customWidth="1"/>
@@ -1139,10 +1142,11 @@
     <col min="12" max="12" width="24.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.54296875" style="3" customWidth="1"/>
     <col min="14" max="14" width="17.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.81640625" style="3"/>
+    <col min="15" max="15" width="26.6328125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1185,8 +1189,11 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="O1" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1298,7 +1305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1315,7 +1322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1332,7 +1339,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1349,7 +1356,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1387,7 +1394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1415,7 +1422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1466,7 +1473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1486,7 +1493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -1550,7 +1557,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1571,7 +1578,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1588,7 +1595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1674,7 +1681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -1717,7 +1724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -1740,7 +1747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -1784,7 +1791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>55</v>
       </c>
@@ -1797,6 +1804,9 @@
       <c r="D32" s="16" t="s">
         <v>37</v>
       </c>
+      <c r="E32" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="K32" s="15" t="s">
         <v>37</v>
       </c>
@@ -1804,6 +1814,9 @@
         <v>38</v>
       </c>
       <c r="M32" s="17"/>
+      <c r="O32" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
@@ -3007,11 +3020,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:CB45"/>
+  <dimension ref="A1:CD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3992,7 +4005,7 @@
       </c>
       <c r="AH16" s="12"/>
     </row>
-    <row r="17" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -4057,7 +4070,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -4107,7 +4120,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -4165,7 +4178,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>181</v>
       </c>
@@ -4182,7 +4195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -4231,7 +4244,7 @@
       <c r="AF21" s="2"/>
       <c r="AL21" s="11"/>
     </row>
-    <row r="22" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -4280,7 +4293,7 @@
       <c r="AF22" s="2"/>
       <c r="AL22" s="11"/>
     </row>
-    <row r="23" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -4316,7 +4329,7 @@
       </c>
       <c r="AQ23" s="9"/>
     </row>
-    <row r="24" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -4352,7 +4365,7 @@
       </c>
       <c r="AQ24" s="9"/>
     </row>
-    <row r="25" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
@@ -4417,7 +4430,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -4453,7 +4466,7 @@
       </c>
       <c r="AQ26" s="9"/>
     </row>
-    <row r="27" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -4489,7 +4502,7 @@
       </c>
       <c r="AQ27" s="9"/>
     </row>
-    <row r="28" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -4517,7 +4530,7 @@
       <c r="J28" s="2"/>
       <c r="AH28" s="12"/>
     </row>
-    <row r="29" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -4660,7 +4673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -4686,7 +4699,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -4924,7 +4937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:80" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:82" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>55</v>
       </c>
@@ -4970,6 +4983,104 @@
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
+      <c r="AG32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL32" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM32" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN32" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO32" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP32" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ32" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR32" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="9"/>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB32" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="BD32" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK32" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="BL32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BM32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN32" s="8"/>
+      <c r="BO32" s="8"/>
+      <c r="BP32" s="8"/>
+      <c r="BQ32" s="3"/>
+      <c r="BR32" s="3"/>
+      <c r="BS32" s="3"/>
+      <c r="BT32" s="3"/>
+      <c r="BU32" s="3"/>
+      <c r="BV32" s="3"/>
+      <c r="BW32" s="3"/>
+      <c r="BX32" s="3"/>
+      <c r="BY32" s="3"/>
+      <c r="BZ32" s="3"/>
+      <c r="CA32" s="3"/>
+      <c r="CB32" s="3"/>
+      <c r="CC32" s="3"/>
+      <c r="CD32" s="3"/>
     </row>
     <row r="33" spans="1:80" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAB7FCE-A628-424E-93D0-F48E5F168F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E49E83-0C3F-4E0D-8901-4172CF15E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="204">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1121,9 +1121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1814,6 +1814,9 @@
         <v>38</v>
       </c>
       <c r="M32" s="17"/>
+      <c r="N32" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="O32" s="15" t="s">
         <v>15</v>
       </c>
@@ -6652,6 +6655,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6868,26 +6890,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6906,24 +6927,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E49E83-0C3F-4E0D-8901-4172CF15E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9D250B-4CB9-4541-B71A-039D55B46FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="205">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -648,6 +648,9 @@
   </si>
   <si>
     <t>testT4275_1</t>
+  </si>
+  <si>
+    <t>testT4275_2</t>
   </si>
   <si>
     <t>CDSS</t>
@@ -785,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -801,10 +804,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,20 +1123,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="3" bestFit="1" customWidth="1"/>
@@ -1142,8 +1146,7 @@
     <col min="12" max="12" width="24.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.54296875" style="3" customWidth="1"/>
     <col min="14" max="14" width="17.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.6328125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="3"/>
+    <col min="15" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
@@ -1189,8 +1192,8 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>203</v>
+      <c r="O1" s="15" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
@@ -1791,114 +1794,123 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:15" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="15">
-        <v>1</v>
-      </c>
-      <c r="C32" s="15">
-        <v>1</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="17"/>
-      <c r="N32" s="3" t="s">
+      <c r="M32" s="19"/>
+      <c r="N32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="15" t="s">
+      <c r="O32" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="15">
-        <v>1</v>
-      </c>
-      <c r="C33" s="15">
-        <v>1</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="E33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="M33" s="19"/>
+      <c r="N33" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>37</v>
+      <c r="E35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>38</v>
@@ -1906,66 +1918,48 @@
       <c r="M35" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -2005,18 +1999,18 @@
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>54</v>
@@ -2047,109 +2041,127 @@
       </c>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
+      <c r="M40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="L41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K44" s="3" t="s">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L44" s="1" t="s">
@@ -2158,10 +2170,11 @@
       <c r="M44" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -2172,64 +2185,42 @@
       <c r="D45" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
+      <c r="K45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="13">
-        <v>1</v>
-      </c>
-      <c r="C46" s="13">
-        <v>1</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>72</v>
+      <c r="B47" s="13">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2240,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2737,68 +2728,68 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="17">
-        <v>1</v>
-      </c>
-      <c r="C25" s="17">
-        <v>1</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="17">
-        <v>1</v>
-      </c>
-      <c r="C26" s="17">
-        <v>1</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="18" t="s">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="A27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -2806,59 +2797,59 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -2881,7 +2872,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2898,121 +2889,141 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3023,11 +3034,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:CD45"/>
+  <dimension ref="A1:CB49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG28" sqref="AG28"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4008,7 +4019,7 @@
       </c>
       <c r="AH16" s="12"/>
     </row>
-    <row r="17" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -4073,7 +4084,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -4123,7 +4134,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -4181,7 +4192,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>181</v>
       </c>
@@ -4198,7 +4209,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -4247,7 +4258,7 @@
       <c r="AF21" s="2"/>
       <c r="AL21" s="11"/>
     </row>
-    <row r="22" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -4296,7 +4307,7 @@
       <c r="AF22" s="2"/>
       <c r="AL22" s="11"/>
     </row>
-    <row r="23" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -4332,7 +4343,7 @@
       </c>
       <c r="AQ23" s="9"/>
     </row>
-    <row r="24" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -4368,7 +4379,7 @@
       </c>
       <c r="AQ24" s="9"/>
     </row>
-    <row r="25" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
@@ -4433,7 +4444,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -4469,7 +4480,7 @@
       </c>
       <c r="AQ26" s="9"/>
     </row>
-    <row r="27" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -4505,7 +4516,7 @@
       </c>
       <c r="AQ27" s="9"/>
     </row>
-    <row r="28" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -4533,7 +4544,7 @@
       <c r="J28" s="2"/>
       <c r="AH28" s="12"/>
     </row>
-    <row r="29" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -4676,7 +4687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -4702,7 +4713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -4940,292 +4951,128 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:82" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="15">
-        <v>1</v>
-      </c>
-      <c r="C32" s="15">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="T32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="U32" s="17" t="s">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U32" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AG32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL32" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM32" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN32" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO32" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP32" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ32" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR32" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS32" s="9"/>
-      <c r="AT32" s="9"/>
-      <c r="AU32" s="9"/>
-      <c r="AV32" s="9"/>
-      <c r="AW32" s="9"/>
-      <c r="AX32" s="9"/>
-      <c r="AY32" s="9"/>
-      <c r="AZ32" s="9"/>
-      <c r="BA32" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB32" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC32" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="BD32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE32" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BF32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH32" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="BI32" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="BK32" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="BM32" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="BN32" s="8"/>
-      <c r="BO32" s="8"/>
-      <c r="BP32" s="8"/>
-      <c r="BQ32" s="3"/>
-      <c r="BR32" s="3"/>
-      <c r="BS32" s="3"/>
-      <c r="BT32" s="3"/>
-      <c r="BU32" s="3"/>
-      <c r="BV32" s="3"/>
-      <c r="BW32" s="3"/>
-      <c r="BX32" s="3"/>
-      <c r="BY32" s="3"/>
-      <c r="BZ32" s="3"/>
-      <c r="CA32" s="3"/>
-      <c r="CB32" s="3"/>
-      <c r="CC32" s="3"/>
-      <c r="CD32" s="3"/>
-    </row>
-    <row r="33" spans="1:80" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+    </row>
+    <row r="33" spans="1:80" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="15">
-        <v>1</v>
-      </c>
-      <c r="C33" s="15">
-        <v>1</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="T33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="U33" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="V33" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-    </row>
-    <row r="34" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="B34" s="18">
+        <v>1</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="1:80" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="18">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18">
+        <v>1</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="19"/>
     </row>
     <row r="36" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -5233,378 +5080,428 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>168</v>
+      <c r="F36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
-      <c r="BL38" s="1"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
-      <c r="BO38" s="1"/>
-      <c r="BP38" s="1"/>
-      <c r="BQ38" s="1"/>
-      <c r="BR38" s="1"/>
-      <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="1"/>
-      <c r="BV38" s="1"/>
-      <c r="BW38" s="1"/>
-      <c r="BX38" s="1"/>
-      <c r="BY38" s="1"/>
-      <c r="BZ38" s="1"/>
-      <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
-    </row>
-    <row r="39" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+    </row>
+    <row r="41" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
-      <c r="BC39" s="1"/>
-      <c r="BD39" s="1"/>
-      <c r="BE39" s="1"/>
-      <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
-      <c r="BH39" s="1"/>
-      <c r="BI39" s="1"/>
-      <c r="BJ39" s="1"/>
-      <c r="BK39" s="1"/>
-      <c r="BL39" s="1"/>
-      <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
-      <c r="BO39" s="1"/>
-      <c r="BP39" s="1"/>
-      <c r="BQ39" s="1"/>
-      <c r="BR39" s="1"/>
-      <c r="BS39" s="1"/>
-      <c r="BT39" s="1"/>
-      <c r="BU39" s="1"/>
-      <c r="BV39" s="1"/>
-      <c r="BW39" s="1"/>
-      <c r="BX39" s="1"/>
-      <c r="BY39" s="1"/>
-      <c r="BZ39" s="1"/>
-      <c r="CA39" s="1"/>
-      <c r="CB39" s="1"/>
-    </row>
-    <row r="40" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1"/>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="J41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
     </row>
     <row r="42" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -5612,285 +5509,505 @@
       <c r="C42" s="3">
         <v>1</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR42" s="3" t="s">
-        <v>73</v>
+      <c r="F42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
-      <c r="BI43" s="1"/>
-      <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
-      <c r="BL43" s="1"/>
-      <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
-      <c r="BO43" s="1"/>
-      <c r="BP43" s="1"/>
-      <c r="BQ43" s="1"/>
-      <c r="BR43" s="1"/>
-      <c r="BS43" s="1"/>
-      <c r="BT43" s="1"/>
-      <c r="BU43" s="1"/>
-      <c r="BV43" s="1"/>
-      <c r="BW43" s="1"/>
-      <c r="BX43" s="1"/>
-      <c r="BY43" s="1"/>
-      <c r="BZ43" s="1"/>
-      <c r="CA43" s="1"/>
-      <c r="CB43" s="1"/>
+      <c r="T43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="44" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR44" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+    </row>
+    <row r="46" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR45" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR47" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:80" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="15">
+        <v>1</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="R49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="T49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="16"/>
+      <c r="AL49" s="16"/>
+      <c r="AM49" s="16"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="16"/>
+      <c r="AP49" s="16"/>
+      <c r="AQ49" s="16"/>
+      <c r="AR49" s="16"/>
+      <c r="AS49" s="16"/>
+      <c r="AT49" s="16"/>
+      <c r="AU49" s="16"/>
+      <c r="AV49" s="16"/>
+      <c r="AW49" s="16"/>
+      <c r="AX49" s="16"/>
+      <c r="AY49" s="16"/>
+      <c r="AZ49" s="16"/>
+      <c r="BA49" s="16"/>
+      <c r="BB49" s="16"/>
+      <c r="BC49" s="16"/>
+      <c r="BD49" s="16"/>
+      <c r="BE49" s="16"/>
+      <c r="BF49" s="16"/>
+      <c r="BG49" s="16"/>
+      <c r="BH49" s="16"/>
+      <c r="BI49" s="16"/>
+      <c r="BJ49" s="16"/>
+      <c r="BK49" s="16"/>
+      <c r="BL49" s="16"/>
+      <c r="BM49" s="16"/>
+      <c r="BN49" s="16"/>
+      <c r="BO49" s="16"/>
+      <c r="BP49" s="16"/>
+      <c r="BQ49" s="16"/>
+      <c r="BR49" s="16"/>
+      <c r="BS49" s="16"/>
+      <c r="BT49" s="16"/>
+      <c r="BU49" s="16"/>
+      <c r="BV49" s="16"/>
+      <c r="BW49" s="16"/>
+      <c r="BX49" s="16"/>
+      <c r="BY49" s="16"/>
+      <c r="BZ49" s="16"/>
+      <c r="CA49" s="16"/>
+      <c r="CB49" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6655,25 +6772,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6890,25 +6988,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6927,6 +7026,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
